--- a/output/ejecucion_8/results/base0_ci_regression_forest.xlsx
+++ b/output/ejecucion_8/results/base0_ci_regression_forest.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="J50F8ux073q2n7XYI2iyE/LjDhwCHEa4Upd0Bs5NYa0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="BQvWmkb/OAEYy3WPTcFw47yrUosxgqSOL17xvqvaFYQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="103">
   <si>
     <t>Model</t>
   </si>
@@ -66,28 +66,265 @@
     <t>Grid_Search_Params</t>
   </si>
   <si>
-    <t>Regression Forest_o</t>
+    <t>0.65_Regression Forest_o</t>
   </si>
   <si>
     <t>{'max_depth': 10, 'n_estimators': 252}</t>
   </si>
   <si>
-    <t>Regression Forest_s</t>
+    <t>0.45_Regression Forest_nro</t>
+  </si>
+  <si>
+    <t>{'max_depth': 20, 'n_estimators': 500}</t>
+  </si>
+  <si>
+    <t>0.4_Regression Forest_nro</t>
+  </si>
+  <si>
+    <t>0.45_Regression Forest_s</t>
   </si>
   <si>
     <t>{'max_depth': 20, 'n_estimators': 1000}</t>
   </si>
   <si>
-    <t>Regression Forest_st</t>
-  </si>
-  <si>
-    <t>{'max_depth': 20, 'n_estimators': 500}</t>
-  </si>
-  <si>
-    <t>Regression Forest_nro</t>
-  </si>
-  <si>
-    <t>{'max_depth': 30, 'n_estimators': 500}</t>
+    <t>0.45_Regression Forest_st</t>
+  </si>
+  <si>
+    <t>0.5_Regression Forest_nro</t>
+  </si>
+  <si>
+    <t>0.7_Regression Forest_o</t>
+  </si>
+  <si>
+    <t>0.5_Regression Forest_s</t>
+  </si>
+  <si>
+    <t>0.5_Regression Forest_st</t>
+  </si>
+  <si>
+    <t>0.4_Regression Forest_s</t>
+  </si>
+  <si>
+    <t>0.4_Regression Forest_st</t>
+  </si>
+  <si>
+    <t>0.55_Regression Forest_nro</t>
+  </si>
+  <si>
+    <t>0.55_Regression Forest_st</t>
+  </si>
+  <si>
+    <t>0.75_Regression Forest_o</t>
+  </si>
+  <si>
+    <t>0.55_Regression Forest_s</t>
+  </si>
+  <si>
+    <t>0.6_Regression Forest_nro</t>
+  </si>
+  <si>
+    <t>0.6_Regression Forest_st</t>
+  </si>
+  <si>
+    <t>0.6_Regression Forest_o</t>
+  </si>
+  <si>
+    <t>0.6_Regression Forest_s</t>
+  </si>
+  <si>
+    <t>0.65_Regression Forest_st</t>
+  </si>
+  <si>
+    <t>0.65_Regression Forest_s</t>
+  </si>
+  <si>
+    <t>0.35_Regression Forest_nro</t>
+  </si>
+  <si>
+    <t>0.65_Regression Forest_nro</t>
+  </si>
+  <si>
+    <t>0.35_Regression Forest_st</t>
+  </si>
+  <si>
+    <t>0.35_Regression Forest_s</t>
+  </si>
+  <si>
+    <t>0.7_Regression Forest_st</t>
+  </si>
+  <si>
+    <t>0.2_Regression Forest_st</t>
+  </si>
+  <si>
+    <t>0.25_Regression Forest_st</t>
+  </si>
+  <si>
+    <t>0.15_Regression Forest_st</t>
+  </si>
+  <si>
+    <t>0.1_Regression Forest_st</t>
+  </si>
+  <si>
+    <t>0.0_Regression Forest_o</t>
+  </si>
+  <si>
+    <t>0.3_Regression Forest_st</t>
+  </si>
+  <si>
+    <t>0.05_Regression Forest_o</t>
+  </si>
+  <si>
+    <t>0.0_Regression Forest_nro</t>
+  </si>
+  <si>
+    <t>0.05_Regression Forest_nro</t>
+  </si>
+  <si>
+    <t>0.1_Regression Forest_nro</t>
+  </si>
+  <si>
+    <t>0.15_Regression Forest_nro</t>
+  </si>
+  <si>
+    <t>0.2_Regression Forest_nro</t>
+  </si>
+  <si>
+    <t>0.25_Regression Forest_nro</t>
+  </si>
+  <si>
+    <t>0.05_Regression Forest_st</t>
+  </si>
+  <si>
+    <t>0.0_Regression Forest_st</t>
+  </si>
+  <si>
+    <t>0.1_Regression Forest_s</t>
+  </si>
+  <si>
+    <t>0.15_Regression Forest_s</t>
+  </si>
+  <si>
+    <t>0.25_Regression Forest_o</t>
+  </si>
+  <si>
+    <t>0.2_Regression Forest_o</t>
+  </si>
+  <si>
+    <t>0.15_Regression Forest_o</t>
+  </si>
+  <si>
+    <t>0.1_Regression Forest_o</t>
+  </si>
+  <si>
+    <t>0.4_Regression Forest_o</t>
+  </si>
+  <si>
+    <t>0.0_Regression Forest_s</t>
+  </si>
+  <si>
+    <t>0.05_Regression Forest_s</t>
+  </si>
+  <si>
+    <t>0.35_Regression Forest_o</t>
+  </si>
+  <si>
+    <t>0.3_Regression Forest_o</t>
+  </si>
+  <si>
+    <t>0.2_Regression Forest_s</t>
+  </si>
+  <si>
+    <t>0.25_Regression Forest_s</t>
+  </si>
+  <si>
+    <t>0.55_Regression Forest_o</t>
+  </si>
+  <si>
+    <t>0.5_Regression Forest_o</t>
+  </si>
+  <si>
+    <t>0.45_Regression Forest_o</t>
+  </si>
+  <si>
+    <t>0.3_Regression Forest_s</t>
+  </si>
+  <si>
+    <t>0.3_Regression Forest_nro</t>
+  </si>
+  <si>
+    <t>0.7_Regression Forest_s</t>
+  </si>
+  <si>
+    <t>0.7_Regression Forest_nro</t>
+  </si>
+  <si>
+    <t>0.8_Regression Forest_o</t>
+  </si>
+  <si>
+    <t>0.75_Regression Forest_st</t>
+  </si>
+  <si>
+    <t>0.75_Regression Forest_s</t>
+  </si>
+  <si>
+    <t>1.0_Regression Forest_s</t>
+  </si>
+  <si>
+    <t>0.75_Regression Forest_nro</t>
+  </si>
+  <si>
+    <t>0.85_Regression Forest_nro</t>
+  </si>
+  <si>
+    <t>0.9_Regression Forest_nro</t>
+  </si>
+  <si>
+    <t>0.95_Regression Forest_nro</t>
+  </si>
+  <si>
+    <t>0.8_Regression Forest_nro</t>
+  </si>
+  <si>
+    <t>1.0_Regression Forest_st</t>
+  </si>
+  <si>
+    <t>0.85_Regression Forest_o</t>
+  </si>
+  <si>
+    <t>0.9_Regression Forest_o</t>
+  </si>
+  <si>
+    <t>0.95_Regression Forest_s</t>
+  </si>
+  <si>
+    <t>0.95_Regression Forest_st</t>
+  </si>
+  <si>
+    <t>0.9_Regression Forest_st</t>
+  </si>
+  <si>
+    <t>0.85_Regression Forest_st</t>
+  </si>
+  <si>
+    <t>0.8_Regression Forest_st</t>
+  </si>
+  <si>
+    <t>0.95_Regression Forest_o</t>
+  </si>
+  <si>
+    <t>1.0_Regression Forest_o</t>
+  </si>
+  <si>
+    <t>0.8_Regression Forest_s</t>
+  </si>
+  <si>
+    <t>0.85_Regression Forest_s</t>
+  </si>
+  <si>
+    <t>0.9_Regression Forest_s</t>
+  </si>
+  <si>
+    <t>1.0_Regression Forest_nro</t>
   </si>
 </sst>
 </file>
@@ -366,7 +603,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="25.14"/>
+    <col customWidth="1" min="2" max="2" width="26.29"/>
     <col customWidth="1" min="3" max="26" width="8.71"/>
   </cols>
   <sheetData>
@@ -422,52 +659,52 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>0.718</v>
+        <v>0.759</v>
       </c>
       <c r="D2" s="2">
-        <v>9.746</v>
+        <v>0.53</v>
       </c>
       <c r="E2" s="2">
         <v>0.8</v>
       </c>
       <c r="F2" s="2">
-        <v>0.418</v>
+        <v>0.702</v>
       </c>
       <c r="G2" s="2">
-        <v>0.836</v>
+        <v>0.833</v>
       </c>
       <c r="H2" s="2">
-        <v>0.0</v>
+        <v>0.572</v>
       </c>
       <c r="I2" s="2">
-        <v>0.0</v>
+        <v>0.405</v>
       </c>
       <c r="J2" s="2">
-        <v>0.717</v>
+        <v>0.708</v>
       </c>
       <c r="K2" s="2">
-        <v>9.761</v>
+        <v>0.565</v>
       </c>
       <c r="L2" s="2">
         <v>0.664</v>
       </c>
       <c r="M2" s="2">
-        <v>0.418</v>
+        <v>0.633</v>
       </c>
       <c r="N2" s="2">
-        <v>0.835</v>
+        <v>0.799</v>
       </c>
       <c r="O2" s="2">
-        <v>0.0</v>
+        <v>0.467</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0</v>
+        <v>0.266</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>17</v>
@@ -475,52 +712,52 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="2">
-        <v>0.767</v>
+        <v>0.777</v>
       </c>
       <c r="D3" s="2">
-        <v>8.036</v>
+        <v>0.526</v>
       </c>
       <c r="E3" s="2">
-        <v>0.895</v>
+        <v>0.898</v>
       </c>
       <c r="F3" s="2">
-        <v>0.767</v>
+        <v>0.776</v>
       </c>
       <c r="G3" s="2">
-        <v>0.763</v>
+        <v>0.794</v>
       </c>
       <c r="H3" s="2">
-        <v>0.772</v>
+        <v>0.757</v>
       </c>
       <c r="I3" s="2">
-        <v>0.535</v>
+        <v>0.563</v>
       </c>
       <c r="J3" s="2">
-        <v>0.638</v>
+        <v>0.691</v>
       </c>
       <c r="K3" s="2">
-        <v>12.514</v>
+        <v>0.622</v>
       </c>
       <c r="L3" s="2">
-        <v>0.641</v>
+        <v>0.674</v>
       </c>
       <c r="M3" s="2">
-        <v>0.594</v>
+        <v>0.626</v>
       </c>
       <c r="N3" s="2">
-        <v>0.727</v>
+        <v>0.782</v>
       </c>
       <c r="O3" s="2">
-        <v>0.46</v>
+        <v>0.471</v>
       </c>
       <c r="P3" s="2">
-        <v>0.204</v>
+        <v>0.253</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>19</v>
@@ -528,175 +765,4350 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>71.0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2">
-        <v>0.769</v>
+        <v>0.777</v>
       </c>
       <c r="D4" s="2">
-        <v>7.978</v>
+        <v>0.526</v>
       </c>
       <c r="E4" s="2">
         <v>0.898</v>
       </c>
       <c r="F4" s="2">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="G4" s="2">
-        <v>0.766</v>
+        <v>0.81</v>
       </c>
       <c r="H4" s="2">
-        <v>0.772</v>
+        <v>0.73</v>
       </c>
       <c r="I4" s="2">
-        <v>0.538</v>
+        <v>0.59</v>
       </c>
       <c r="J4" s="2">
-        <v>0.638</v>
+        <v>0.734</v>
       </c>
       <c r="K4" s="2">
-        <v>12.514</v>
+        <v>0.622</v>
       </c>
       <c r="L4" s="2">
-        <v>0.644</v>
+        <v>0.674</v>
       </c>
       <c r="M4" s="2">
-        <v>0.594</v>
+        <v>0.624</v>
       </c>
       <c r="N4" s="2">
-        <v>0.727</v>
+        <v>0.828</v>
       </c>
       <c r="O4" s="2">
-        <v>0.46</v>
+        <v>0.421</v>
       </c>
       <c r="P4" s="2">
-        <v>0.204</v>
+        <v>0.273</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.794</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.508</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.895</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.793</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.807</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.593</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.691</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.617</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.785</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.448</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.234</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.799</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.811</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.787</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.604</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.686</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.644</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.611</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.782</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.222</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.775</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.526</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.775</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.768</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.782</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.552</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.674</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.608</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.736</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.233</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.704</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.671</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.776</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.565</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.362</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.647</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.565</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.664</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.605</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.735</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.475</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.226</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.767</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.508</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.895</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.767</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.763</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.772</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.535</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.638</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.594</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.727</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.204</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.769</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.769</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.766</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.772</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.538</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.638</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.644</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.594</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.727</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.204</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.797</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.508</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.895</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.792</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.823</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.762</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.713</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.592</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.814</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.207</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.795</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.823</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.758</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.713</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.644</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.589</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.814</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.364</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.203</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.526</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.777</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.754</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.572</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.674</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.589</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.703</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.475</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.211</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.753</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.751</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.727</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.774</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.515</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.604</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.644</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.576</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.685</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.468</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.194</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.665</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.648</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.726</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.57</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.363</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.599</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.565</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.664</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.575</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.676</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.475</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.201</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.757</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.508</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.895</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.755</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.731</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.779</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.524</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.599</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.571</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.681</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.461</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.797</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.526</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.753</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.828</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.636</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.587</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.674</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.568</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.659</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.477</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.757</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.751</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.712</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.789</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.539</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.582</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.644</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.564</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.653</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.474</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.194</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.651</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.863</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.439</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.391</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.729</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.565</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.664</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.558</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.833</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.282</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.202</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.757</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.508</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.895</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.711</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.575</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.558</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.645</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.185</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.749</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.737</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.794</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.553</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.563</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.644</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.551</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.478</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.194</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.748</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.508</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.895</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.736</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.679</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.792</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.549</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.563</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.55</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.475</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.706</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.526</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.771</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.588</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.734</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.674</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.841</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.179</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.195</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.751</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.526</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.734</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.669</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.577</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.505</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.674</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.504</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.522</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.486</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.199</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.749</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.733</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.799</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.574</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.644</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.496</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.832</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.124</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.746</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.508</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.895</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.729</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.797</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.662</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.57</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.722</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.479</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.122</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.701</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.673</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.576</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.769</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.498</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.435</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.644</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.434</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.409</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0.458</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.502</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.338</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.668</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.009</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.047</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.644</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.576</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.483</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.702</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.264</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.287</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.644</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.644</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.644</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.718</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.836</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.565</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.664</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.678</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.756</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.524</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.465</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.644</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.718</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.836</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.565</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.664</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.526</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.674</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.526</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0.674</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.526</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.674</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.526</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0.674</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.526</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0.674</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="1">
+        <v>68.0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.515</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.526</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.366</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.673</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.059</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.124</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0.674</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0.644</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0.644</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.508</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.895</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.508</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.895</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.718</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.836</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0.565</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0.664</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.718</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.836</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0.565</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0.664</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O46" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="1">
         <v>3.0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.718</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.836</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0.565</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0.664</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O47" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.718</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.836</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0.565</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0.664</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N48" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O48" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.718</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.836</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0.565</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0.664</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.508</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.895</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O50" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q50" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.775</v>
-      </c>
-      <c r="D5" s="2">
-        <v>7.761</v>
-      </c>
-      <c r="E5" s="2">
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.508</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.895</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.718</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.836</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0.565</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0.664</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N52" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O52" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.718</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.836</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0.565</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0.664</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N53" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O53" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.501</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.508</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.895</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0.337</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0.006</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0.038</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N54" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O54" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.568</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.508</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.895</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0.469</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0.698</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.239</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N55" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.728</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.456</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0.841</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.071</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0.163</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0.565</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0.664</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.718</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0.836</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0.565</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0.664</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O57" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.718</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0.836</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0.565</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0.664</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0.418</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.679</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.508</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.895</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.643</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0.757</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.529</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0.466</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0.715</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0.417</v>
+      </c>
+      <c r="N59" s="2">
+        <v>0.834</v>
+      </c>
+      <c r="O59" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P59" s="2">
+        <v>-0.031</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.577</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.526</v>
+      </c>
+      <c r="E60" s="2">
         <v>0.898</v>
       </c>
-      <c r="F5" s="2">
-        <v>0.775</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.768</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.782</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.552</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="K5" s="2">
-        <v>12.097</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="F60" s="2">
+        <v>0.485</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0.703</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.268</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0.289</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0.715</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="L60" s="2">
         <v>0.674</v>
       </c>
-      <c r="M5" s="2">
-        <v>0.608</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.736</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0.233</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
+      <c r="M60" s="2">
+        <v>0.417</v>
+      </c>
+      <c r="N60" s="2">
+        <v>0.834</v>
+      </c>
+      <c r="O60" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P60" s="2">
+        <v>-0.031</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.686</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.508</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.895</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0.653</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0.545</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.761</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0.476</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0.401</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="L61" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0.396</v>
+      </c>
+      <c r="N61" s="2">
+        <v>0.344</v>
+      </c>
+      <c r="O61" s="2">
+        <v>0.449</v>
+      </c>
+      <c r="P61" s="2">
+        <v>0.093</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.595</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.526</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0.515</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0.318</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0.712</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0.323</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0.324</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0.674</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0.285</v>
+      </c>
+      <c r="N62" s="2">
+        <v>0.119</v>
+      </c>
+      <c r="O62" s="2">
+        <v>0.451</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0.096</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.388</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0.369</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0.261</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.478</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0.206</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0.314</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0.565</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0.664</v>
+      </c>
+      <c r="M63" s="2">
+        <v>0.278</v>
+      </c>
+      <c r="N63" s="2">
+        <v>0.118</v>
+      </c>
+      <c r="O63" s="2">
+        <v>0.439</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0.024</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.537</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0.136</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0.683</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0.195</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0.287</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0.644</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0.232</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0.026</v>
+      </c>
+      <c r="O64" s="2">
+        <v>0.438</v>
+      </c>
+      <c r="P64" s="2">
+        <v>-0.014</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.517</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.508</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.895</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.371</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0.067</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.674</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0.133</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0.285</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="M65" s="2">
+        <v>0.229</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="O65" s="2">
+        <v>0.437</v>
+      </c>
+      <c r="P65" s="2">
+        <v>-0.029</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.508</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.895</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0.283</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="L66" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="M66" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="N66" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O66" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="P66" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.506</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.526</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0.346</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0.023</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0.669</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0.076</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0.283</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0.674</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="N67" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O67" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.526</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0.283</v>
+      </c>
+      <c r="K68" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0.674</v>
+      </c>
+      <c r="M68" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="N68" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O68" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="P68" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="1">
+        <v>81.0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.526</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0.283</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0.674</v>
+      </c>
+      <c r="M69" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="N69" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O69" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="P69" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="1">
+        <v>82.0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.526</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0.283</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="L70" s="2">
+        <v>0.674</v>
+      </c>
+      <c r="M70" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="N70" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O70" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="P70" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="1">
+        <v>79.0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.526</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0.283</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="L71" s="2">
+        <v>0.674</v>
+      </c>
+      <c r="M71" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="N71" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O71" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="P71" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0.283</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="L72" s="2">
+        <v>0.644</v>
+      </c>
+      <c r="M72" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="N72" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O72" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="P72" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.282</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0.283</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0.565</v>
+      </c>
+      <c r="L73" s="2">
+        <v>0.664</v>
+      </c>
+      <c r="M73" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="N73" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O73" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="P73" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.282</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0.283</v>
+      </c>
+      <c r="K74" s="2">
+        <v>0.565</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0.664</v>
+      </c>
+      <c r="M74" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="N74" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O74" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="P74" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.508</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0.895</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0.283</v>
+      </c>
+      <c r="K75" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="L75" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="M75" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="N75" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O75" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="P75" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0.283</v>
+      </c>
+      <c r="K76" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="L76" s="2">
+        <v>0.644</v>
+      </c>
+      <c r="M76" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="N76" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O76" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="P76" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0.283</v>
+      </c>
+      <c r="K77" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="L77" s="2">
+        <v>0.644</v>
+      </c>
+      <c r="M77" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="N77" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O77" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="P77" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0.283</v>
+      </c>
+      <c r="K78" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="L78" s="2">
+        <v>0.644</v>
+      </c>
+      <c r="M78" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="N78" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O78" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="P78" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0.283</v>
+      </c>
+      <c r="K79" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="L79" s="2">
+        <v>0.644</v>
+      </c>
+      <c r="M79" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="N79" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O79" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="P79" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.282</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0.283</v>
+      </c>
+      <c r="K80" s="2">
+        <v>0.565</v>
+      </c>
+      <c r="L80" s="2">
+        <v>0.664</v>
+      </c>
+      <c r="M80" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="N80" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O80" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="P80" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.282</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="I81" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0.283</v>
+      </c>
+      <c r="K81" s="2">
+        <v>0.565</v>
+      </c>
+      <c r="L81" s="2">
+        <v>0.664</v>
+      </c>
+      <c r="M81" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="N81" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O81" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="P81" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.508</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0.895</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0.283</v>
+      </c>
+      <c r="K82" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="L82" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="M82" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="N82" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O82" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="P82" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.508</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0.895</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0.283</v>
+      </c>
+      <c r="K83" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="L83" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="M83" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="N83" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O83" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="P83" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0.508</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0.895</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0.283</v>
+      </c>
+      <c r="K84" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="L84" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="M84" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="N84" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O84" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="P84" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="1">
+        <v>83.0</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.526</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0.898</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0.667</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0.283</v>
+      </c>
+      <c r="K85" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="L85" s="2">
+        <v>0.674</v>
+      </c>
+      <c r="M85" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="N85" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O85" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="P85" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="86" ht="15.75" customHeight="1"/>
     <row r="87" ht="15.75" customHeight="1"/>
     <row r="88" ht="15.75" customHeight="1"/>
